--- a/jiedan/baidu_ocr/业务信息模板.xlsx
+++ b/jiedan/baidu_ocr/业务信息模板.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>客户名称</t>
   </si>
@@ -43,6 +43,12 @@
   <si>
     <t>法定代表人姓名</t>
   </si>
+  <si>
+    <t>胡德先</t>
+  </si>
+  <si>
+    <t>A001</t>
+  </si>
 </sst>
 </file>
 
@@ -228,7 +234,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor indexed="23"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,95 +764,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>168910</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>6388735</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>3212465</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8373745" y="488950"/>
-          <a:ext cx="6219825" cy="3168015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>325755</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2878455</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1416050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2063115" y="612775"/>
-          <a:ext cx="2552700" cy="1247775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1110,7 +1027,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1138,10 +1055,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="276" customHeight="1"/>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>64</v>
+      </c>
+      <c r="D2">
+        <v>123456789</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>